--- a/cypress/downloads/resultsApproval_NewMCPNonFO.xlsx
+++ b/cypress/downloads/resultsApproval_NewMCPNonFO.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,6 +410,12 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
+      <c r="E1" t="str">
         <v>TimeStamp</v>
       </c>
     </row>
@@ -421,18 +427,18 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-09T09:48:37.495Z</v>
+        <v>2025-02-09T15:27:44.097Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan input SONumber di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-02-09T09:48:43.560Z</v>
+      <c r="D3" t="str">
+        <v>2025-02-09T15:27:50.428Z</v>
       </c>
     </row>
     <row r="4">
@@ -442,112 +448,46 @@
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-02-09T09:48:43.762Z</v>
+      <c r="D4" t="str">
+        <v>2025-02-09T15:27:50.614Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>User LEAD AM melakukan akses ke menu Stip Approval</v>
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B5" t="str">
         <v>Pass</v>
       </c>
-      <c r="C5" t="str">
-        <v>2025-02-09T09:48:50.161Z</v>
+      <c r="E5" t="str">
+        <v>2025-02-09T15:28:07.720Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>User LEAD AM melakukan input SONumber di Stip approval</v>
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
       </c>
       <c r="B6" t="str">
         <v>Pass</v>
       </c>
-      <c r="C6" t="str">
-        <v>2025-02-09T09:48:56.007Z</v>
+      <c r="E6" t="str">
+        <v>2025-02-09T15:28:13.622Z</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>User LEAD AM melakukan klik tombol Search di Stip approval</v>
+        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B7" t="str">
         <v>Pass</v>
       </c>
-      <c r="C7" t="str">
-        <v>2025-02-09T09:48:56.185Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C8" t="str">
-        <v>2025-02-09T09:49:00.890Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C9" t="str">
-        <v>2025-02-09T09:49:06.949Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C10" t="str">
-        <v>2025-02-09T09:49:07.139Z</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>User ARO melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C11" t="str">
-        <v>2025-02-09T09:49:11.740Z</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>User ARO melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C12" t="str">
-        <v>2025-02-09T09:49:17.547Z</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>User ARO melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C13" t="str">
-        <v>2025-02-09T09:49:17.726Z</v>
+      <c r="E7" t="str">
+        <v>2025-02-09T15:28:13.814Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
   </ignoredErrors>
 </worksheet>
 </file>